--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>1.408297512394436</v>
+        <v>2.6524077318</v>
       </c>
       <c r="R2">
-        <v>1.408297512394436</v>
+        <v>23.8716695862</v>
       </c>
       <c r="S2">
-        <v>0.0007060828589543038</v>
+        <v>0.001116026469729609</v>
       </c>
       <c r="T2">
-        <v>0.0007060828589543038</v>
+        <v>0.001386516152134619</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>17.62773276126218</v>
+        <v>22.62568841784</v>
       </c>
       <c r="R3">
-        <v>17.62773276126218</v>
+        <v>203.63119576056</v>
       </c>
       <c r="S3">
-        <v>0.008838075644820415</v>
+        <v>0.009519979476544552</v>
       </c>
       <c r="T3">
-        <v>0.008838075644820415</v>
+        <v>0.01182732280123884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>20.15484302667001</v>
+        <v>27.19054803906</v>
       </c>
       <c r="R4">
-        <v>20.15484302667001</v>
+        <v>244.71493235154</v>
       </c>
       <c r="S4">
-        <v>0.01010510141557401</v>
+        <v>0.01144068876524208</v>
       </c>
       <c r="T4">
-        <v>0.01010510141557401</v>
+        <v>0.01421355155527487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>20.02654467732078</v>
+        <v>27.4459243428</v>
       </c>
       <c r="R5">
-        <v>20.02654467732078</v>
+        <v>247.0133190852</v>
       </c>
       <c r="S5">
-        <v>0.01004077604077902</v>
+        <v>0.0115481408403128</v>
       </c>
       <c r="T5">
-        <v>0.01004077604077902</v>
+        <v>0.01434704663062199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H6">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I6">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J6">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N6">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O6">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P6">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q6">
-        <v>48.53757415851346</v>
+        <v>56.83338306126</v>
       </c>
       <c r="R6">
-        <v>48.53757415851346</v>
+        <v>341.00029836756</v>
       </c>
       <c r="S6">
-        <v>0.02433544675533797</v>
+        <v>0.02391320123984287</v>
       </c>
       <c r="T6">
-        <v>0.02433544675533797</v>
+        <v>0.01980600560266924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H7">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I7">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J7">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N7">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O7">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P7">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q7">
-        <v>14.32590374559734</v>
+        <v>26.44272828535555</v>
       </c>
       <c r="R7">
-        <v>14.32590374559734</v>
+        <v>237.9845545682</v>
       </c>
       <c r="S7">
-        <v>0.007182626529388097</v>
+        <v>0.01112603629695265</v>
       </c>
       <c r="T7">
-        <v>0.007182626529388097</v>
+        <v>0.01382263723431076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H8">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I8">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J8">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N8">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O8">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P8">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q8">
-        <v>179.3180777274748</v>
+        <v>225.56295698024</v>
       </c>
       <c r="R8">
-        <v>179.3180777274748</v>
+        <v>2030.06661282216</v>
       </c>
       <c r="S8">
-        <v>0.08990530755730224</v>
+        <v>0.09490781811648352</v>
       </c>
       <c r="T8">
-        <v>0.08990530755730224</v>
+        <v>0.1179104854154945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H9">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I9">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J9">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N9">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O9">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P9">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q9">
-        <v>205.0251020587112</v>
+        <v>271.07154948566</v>
       </c>
       <c r="R9">
-        <v>205.0251020587112</v>
+        <v>2439.64394537094</v>
       </c>
       <c r="S9">
-        <v>0.1027941247818288</v>
+        <v>0.1140560030758602</v>
       </c>
       <c r="T9">
-        <v>0.1027941247818288</v>
+        <v>0.1416995876010989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H10">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I10">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J10">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N10">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O10">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P10">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q10">
-        <v>203.7199873458611</v>
+        <v>273.6174801619111</v>
       </c>
       <c r="R10">
-        <v>203.7199873458611</v>
+        <v>2462.5573214572</v>
       </c>
       <c r="S10">
-        <v>0.1021397750300169</v>
+        <v>0.1151272282840844</v>
       </c>
       <c r="T10">
-        <v>0.1021397750300169</v>
+        <v>0.1430304440763368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.9585420016724</v>
+        <v>12.48419333333333</v>
       </c>
       <c r="H11">
-        <v>10.9585420016724</v>
+        <v>37.45258</v>
       </c>
       <c r="I11">
-        <v>0.5495741193743037</v>
+        <v>0.5736156831070852</v>
       </c>
       <c r="J11">
-        <v>0.5495741193743037</v>
+        <v>0.6139157624955174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N11">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O11">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P11">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q11">
-        <v>493.7483800971911</v>
+        <v>566.59075744986</v>
       </c>
       <c r="R11">
-        <v>493.7483800971911</v>
+        <v>3399.54454469916</v>
       </c>
       <c r="S11">
-        <v>0.2475522854757676</v>
+        <v>0.2383985973337045</v>
       </c>
       <c r="T11">
-        <v>0.2475522854757676</v>
+        <v>0.1974526081682765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H12">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I12">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J12">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N12">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O12">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P12">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q12">
-        <v>1.723320376402812</v>
+        <v>2.977170551474444</v>
       </c>
       <c r="R12">
-        <v>1.723320376402812</v>
+        <v>26.79453496327</v>
       </c>
       <c r="S12">
-        <v>0.0008640269314939331</v>
+        <v>0.001252673599352753</v>
       </c>
       <c r="T12">
-        <v>0.0008640269314939331</v>
+        <v>0.001556282244162189</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H13">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I13">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J13">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N13">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O13">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P13">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q13">
-        <v>21.57089023441957</v>
+        <v>25.395994913164</v>
       </c>
       <c r="R13">
-        <v>21.57089023441957</v>
+        <v>228.563954218476</v>
       </c>
       <c r="S13">
-        <v>0.01081506976534557</v>
+        <v>0.0106856130030112</v>
       </c>
       <c r="T13">
-        <v>0.01081506976534557</v>
+        <v>0.01327546919897366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H14">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I14">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J14">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N14">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O14">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P14">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q14">
-        <v>24.66329121891714</v>
+        <v>30.519779417701</v>
       </c>
       <c r="R14">
-        <v>24.66329121891714</v>
+        <v>274.678014759309</v>
       </c>
       <c r="S14">
-        <v>0.01236551724462478</v>
+        <v>0.01284149539759807</v>
       </c>
       <c r="T14">
-        <v>0.01236551724462478</v>
+        <v>0.01595386961623398</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H15">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I15">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J15">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N15">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O15">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P15">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q15">
-        <v>24.50629373951631</v>
+        <v>30.80642419026888</v>
       </c>
       <c r="R15">
-        <v>24.50629373951631</v>
+        <v>277.25781771242</v>
       </c>
       <c r="S15">
-        <v>0.0122868028904998</v>
+        <v>0.01296210398645114</v>
       </c>
       <c r="T15">
-        <v>0.0122868028904998</v>
+        <v>0.0161037099301214</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.31824693663406</v>
+        <v>1.405587666666666</v>
       </c>
       <c r="H16">
-        <v>1.31824693663406</v>
+        <v>4.216762999999999</v>
       </c>
       <c r="I16">
-        <v>0.06611047338304436</v>
+        <v>0.06458303777058033</v>
       </c>
       <c r="J16">
-        <v>0.06611047338304436</v>
+        <v>0.06912039897939969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N16">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O16">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P16">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q16">
-        <v>59.39497146899829</v>
+        <v>63.792105701571</v>
       </c>
       <c r="R16">
-        <v>59.39497146899829</v>
+        <v>382.752634209426</v>
       </c>
       <c r="S16">
-        <v>0.02977905655108028</v>
+        <v>0.02684115178416717</v>
       </c>
       <c r="T16">
-        <v>0.02977905655108028</v>
+        <v>0.02223106798990847</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H17">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I17">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J17">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N17">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O17">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P17">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q17">
-        <v>3.015617389538529</v>
+        <v>4.947748139597778</v>
       </c>
       <c r="R17">
-        <v>3.015617389538529</v>
+        <v>44.52973325638001</v>
       </c>
       <c r="S17">
-        <v>0.001511950230102594</v>
+        <v>0.002081813373994082</v>
       </c>
       <c r="T17">
-        <v>0.001511950230102594</v>
+        <v>0.002586379397857827</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H18">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I18">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J18">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N18">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O18">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P18">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q18">
-        <v>37.74663875008794</v>
+        <v>42.20550499621601</v>
       </c>
       <c r="R18">
-        <v>37.74663875008794</v>
+        <v>379.8495449659441</v>
       </c>
       <c r="S18">
-        <v>0.01892515918689816</v>
+        <v>0.01775837861553708</v>
       </c>
       <c r="T18">
-        <v>0.01892515918689816</v>
+        <v>0.02206245053679564</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H19">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I19">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J19">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N19">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O19">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P19">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q19">
-        <v>43.1579936623664</v>
+        <v>50.72070250059401</v>
       </c>
       <c r="R19">
-        <v>43.1579936623664</v>
+        <v>456.486322505346</v>
       </c>
       <c r="S19">
-        <v>0.02163826839404405</v>
+        <v>0.02134123116717409</v>
       </c>
       <c r="T19">
-        <v>0.02163826839404405</v>
+        <v>0.02651367375443582</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H20">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I20">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J20">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N20">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O20">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P20">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q20">
-        <v>42.88326568057169</v>
+        <v>51.19707633127555</v>
       </c>
       <c r="R20">
-        <v>42.88326568057169</v>
+        <v>460.77368698148</v>
       </c>
       <c r="S20">
-        <v>0.0215005271020847</v>
+        <v>0.02154167011106388</v>
       </c>
       <c r="T20">
-        <v>0.0215005271020847</v>
+        <v>0.02676269278826513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.30678429864417</v>
+        <v>2.335940666666667</v>
       </c>
       <c r="H21">
-        <v>2.30678429864417</v>
+        <v>7.007822</v>
       </c>
       <c r="I21">
-        <v>0.1156859141773027</v>
+        <v>0.1073302988371658</v>
       </c>
       <c r="J21">
-        <v>0.1156859141773027</v>
+        <v>0.1148709217512615</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N21">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O21">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P21">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q21">
-        <v>103.9345389665316</v>
+        <v>106.015851913374</v>
       </c>
       <c r="R21">
-        <v>103.9345389665316</v>
+        <v>636.0951114802441</v>
       </c>
       <c r="S21">
-        <v>0.0521100092641732</v>
+        <v>0.0446072055693967</v>
       </c>
       <c r="T21">
-        <v>0.0521100092641732</v>
+        <v>0.03694572527390712</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H22">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I22">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J22">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N22">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O22">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P22">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q22">
-        <v>5.594143332644271</v>
+        <v>9.078280926746668</v>
       </c>
       <c r="R22">
-        <v>5.594143332644271</v>
+        <v>54.46968556048001</v>
       </c>
       <c r="S22">
-        <v>0.002804754452060217</v>
+        <v>0.003819775403465263</v>
       </c>
       <c r="T22">
-        <v>0.002804754452060217</v>
+        <v>0.003163712473423248</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H23">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I23">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J23">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N23">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O23">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P23">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q23">
-        <v>70.02218127076443</v>
+        <v>77.43996262550402</v>
       </c>
       <c r="R23">
-        <v>70.02218127076443</v>
+        <v>464.6397757530241</v>
       </c>
       <c r="S23">
-        <v>0.03510725646160928</v>
+        <v>0.03258362093760133</v>
       </c>
       <c r="T23">
-        <v>0.03510725646160928</v>
+        <v>0.02698724325416262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H24">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I24">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J24">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N24">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O24">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P24">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q24">
-        <v>80.06055520643363</v>
+        <v>93.06390970413602</v>
       </c>
       <c r="R24">
-        <v>80.06055520643363</v>
+        <v>558.3834582248161</v>
       </c>
       <c r="S24">
-        <v>0.04014022975409103</v>
+        <v>0.0391575493319266</v>
       </c>
       <c r="T24">
-        <v>0.04014022975409103</v>
+        <v>0.03243207104211328</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H25">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I25">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J25">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N25">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O25">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P25">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q25">
-        <v>79.55091903276677</v>
+        <v>93.93797510501334</v>
       </c>
       <c r="R25">
-        <v>79.55091903276677</v>
+        <v>563.62785063008</v>
       </c>
       <c r="S25">
-        <v>0.03988471175213319</v>
+        <v>0.03952532088980542</v>
       </c>
       <c r="T25">
-        <v>0.03988471175213319</v>
+        <v>0.03273667624585799</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.27921726704312</v>
+        <v>4.286056</v>
       </c>
       <c r="H26">
-        <v>4.27921726704312</v>
+        <v>8.572112000000001</v>
       </c>
       <c r="I26">
-        <v>0.2146040103498836</v>
+        <v>0.1969329434934967</v>
       </c>
       <c r="J26">
-        <v>0.2146040103498836</v>
+        <v>0.1405124740318818</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.0560284408126</v>
+        <v>45.38465100000001</v>
       </c>
       <c r="N26">
-        <v>45.0560284408126</v>
+        <v>90.76930200000001</v>
       </c>
       <c r="O26">
-        <v>0.4504438559763489</v>
+        <v>0.4156068328578093</v>
       </c>
       <c r="P26">
-        <v>0.4504438559763489</v>
+        <v>0.3216281780510861</v>
       </c>
       <c r="Q26">
-        <v>192.8045348883112</v>
+        <v>194.521155726456</v>
       </c>
       <c r="R26">
-        <v>192.8045348883112</v>
+        <v>778.0846229058242</v>
       </c>
       <c r="S26">
-        <v>0.09666705792998984</v>
+        <v>0.08184667693069808</v>
       </c>
       <c r="T26">
-        <v>0.09666705792998984</v>
+        <v>0.04519277101632468</v>
       </c>
     </row>
   </sheetData>
